--- a/data/trans_camb/P36B08_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.701657364588804</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22.85391394001964</v>
+        <v>22.85391394001963</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>4.777081340978873</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.061989306457741</v>
+        <v>-1.558513464998962</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.969346277872337</v>
+        <v>-2.718036715165006</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>19.27898938745075</v>
+        <v>19.1619975537826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.6753878213224379</v>
+        <v>0.2826255112949118</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.667438804352958</v>
+        <v>-6.884433024302441</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>14.98121888010621</v>
+        <v>15.03211502673992</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9458274576730286</v>
+        <v>0.6222048436441614</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.470842819114597</v>
+        <v>-3.502969765302749</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>18.12256535501722</v>
+        <v>17.85985545306124</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.067208949751684</v>
+        <v>7.582683723398563</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.605206302099019</v>
+        <v>6.74162564307358</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>26.76012625292912</v>
+        <v>26.87772357255463</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.890559057774377</v>
+        <v>9.016138438736292</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.080244774006804</v>
+        <v>2.216606431567605</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>21.58544779447475</v>
+        <v>21.43657847476885</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.132050997457087</v>
+        <v>7.098845554552689</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.343252734104221</v>
+        <v>2.942443382536133</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>23.08433755782521</v>
+        <v>23.16693351541837</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.02350965751954157</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3157437571698056</v>
+        <v>0.3157437571698054</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.06135395480601379</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.02765069728426327</v>
+        <v>-0.02071900694658749</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04044308707442069</v>
+        <v>-0.03637552928427832</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2555749617527104</v>
+        <v>0.2558055748677516</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.008683638545918174</v>
+        <v>0.004722238870527725</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.08278464643609058</v>
+        <v>-0.08546740711087109</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1850869446352991</v>
+        <v>0.1857173917046419</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01234815259508867</v>
+        <v>0.007820398478806468</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0455073898620887</v>
+        <v>-0.0461632223453824</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2347760148927899</v>
+        <v>0.2316320689573464</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1146451573950867</v>
+        <v>0.1089836095076802</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.09453237446031283</v>
+        <v>0.09459063963947649</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3859282351072107</v>
+        <v>0.3894414905068058</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1170077755259491</v>
+        <v>0.1214770203090665</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02788712318027311</v>
+        <v>0.02940473045211293</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2878070521058231</v>
+        <v>0.2857281694029656</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09688834011663194</v>
+        <v>0.09598619607866804</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.04566865012655392</v>
+        <v>0.0400284295656257</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.316150318565962</v>
+        <v>0.3178087978468243</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>9.723448134833435</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>33.35923509079586</v>
+        <v>33.35923509079585</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>8.551998917084857</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.666627487093634</v>
+        <v>3.903522201760631</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.07597073151017</v>
+        <v>5.268197359154064</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29.56676646356689</v>
+        <v>29.78252527897524</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.3746741583767</v>
+        <v>4.542034800583272</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.715594878818053</v>
+        <v>3.709052877850726</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>25.34611194998602</v>
+        <v>25.50861473089761</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.416634768860686</v>
+        <v>5.523603250680618</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.044885971852699</v>
+        <v>5.956270367540763</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>28.58337491958212</v>
+        <v>28.57222915132339</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.65283973848398</v>
+        <v>12.52969533232869</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.94652603012683</v>
+        <v>13.91374762093833</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>36.79021003897531</v>
+        <v>37.0985264812813</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.43290907109422</v>
+        <v>12.77774073969881</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.74633304805644</v>
+        <v>12.00873941109527</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>32.14584070591558</v>
+        <v>32.0534244812751</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.40189673458358</v>
+        <v>11.59571049930372</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>11.78701697425969</v>
+        <v>11.57972660306199</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>33.29767740078488</v>
+        <v>33.25034064551642</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1564175582540359</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.5366378290672114</v>
+        <v>0.5366378290672111</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1243738335095013</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.05612730612887948</v>
+        <v>0.05877961418791838</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.07859082085918496</v>
+        <v>0.08218072223863573</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.452963297726024</v>
+        <v>0.4578845151048044</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.06180208352110397</v>
+        <v>0.06451342619316028</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05279626602876667</v>
+        <v>0.05185367022062575</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3551963807232281</v>
+        <v>0.3549027036038439</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08109939897693567</v>
+        <v>0.08231571807411103</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.09076833010503579</v>
+        <v>0.08996834186379314</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4228371807941688</v>
+        <v>0.422362287549452</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2097739763012751</v>
+        <v>0.2110463381496961</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2329023644045898</v>
+        <v>0.2333800262355177</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6193531017824894</v>
+        <v>0.6274772435255213</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1867750614791411</v>
+        <v>0.1933429280911445</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1767729060447476</v>
+        <v>0.1798452122990915</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4917265866503641</v>
+        <v>0.4897413186252041</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1781389030998017</v>
+        <v>0.1814595483281056</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1846902568748888</v>
+        <v>0.1809657475525429</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5271403654499783</v>
+        <v>0.5252769525002687</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>2.467811661197639</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>23.34731094696474</v>
+        <v>23.34731094696472</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>6.118478815475703</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.837363128404867</v>
+        <v>3.22137284909836</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.540540353439365</v>
+        <v>3.79245325015302</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>30.20596397029416</v>
+        <v>30.82164599499645</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6036955317046536</v>
+        <v>-0.9914176455116713</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.377463306562612</v>
+        <v>-2.04709364755065</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>19.31319766159833</v>
+        <v>19.59584978508541</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>2.3289456633265</v>
+        <v>2.657831320845813</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.854489076394036</v>
+        <v>2.131045562286146</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>26.14893581384799</v>
+        <v>26.13059683209131</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.74615038873613</v>
+        <v>13.80246308372503</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.4408239759936</v>
+        <v>14.58895748706083</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>39.58120071973654</v>
+        <v>39.41209150107937</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.348683346176166</v>
+        <v>8.548621444767441</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.011706841463345</v>
+        <v>7.015320036609205</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>27.13449998555048</v>
+        <v>27.39329341670123</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.686425906152229</v>
+        <v>10.0613868312988</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.163851500535475</v>
+        <v>9.171167828780488</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>32.57007746693656</v>
+        <v>32.23131313621796</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.03498012595144933</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3309376847486548</v>
+        <v>0.3309376847486545</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.0952061811239054</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.04653571610945607</v>
+        <v>0.05241385543314149</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.0577045443007379</v>
+        <v>0.0627953636540589</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4950656506257395</v>
+        <v>0.5049614220975062</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.007711061508545212</v>
+        <v>-0.01337608124042012</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.03272118762979309</v>
+        <v>-0.02811441226056767</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2608053886814361</v>
+        <v>0.2700178835387636</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03601337188831662</v>
+        <v>0.03964555433595857</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.02769999705383265</v>
+        <v>0.03218525952101092</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3882794131017011</v>
+        <v>0.3940249105496955</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2491537811197437</v>
+        <v>0.2528397003501428</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2623896253708514</v>
+        <v>0.2656865061584807</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7310083056031063</v>
+        <v>0.7303113564170356</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1238137446551608</v>
+        <v>0.126176852782803</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1026841085977556</v>
+        <v>0.1029263681107166</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4023740365125485</v>
+        <v>0.4075737637669009</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1574824028466873</v>
+        <v>0.1622086714870278</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1457815981570801</v>
+        <v>0.1477525544125903</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.528432583913609</v>
+        <v>0.5180817454001519</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>14.5273303891422</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32.21106863342994</v>
+        <v>32.21106863342995</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>14.27518205381534</v>
@@ -1297,7 +1297,7 @@
         <v>13.39999420608961</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>26.33403717843704</v>
+        <v>26.33403717843706</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>12.71939821939295</v>
@@ -1306,7 +1306,7 @@
         <v>13.94416087440536</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>29.13987793659002</v>
+        <v>29.13987793659004</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.799718791261014</v>
+        <v>6.813156753425549</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>10.23398482620442</v>
+        <v>10.25346501212709</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28.76436699804388</v>
+        <v>28.63984999631325</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10.53509434922173</v>
+        <v>10.30832593745425</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>9.559547799134435</v>
+        <v>9.242652882426698</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>23.47390592555255</v>
+        <v>23.12753174888936</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>10.20490853949506</v>
+        <v>9.901132989423694</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>11.23230295525263</v>
+        <v>10.76975457538272</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>26.73700485382268</v>
+        <v>26.77429502699998</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.05335759240124</v>
+        <v>15.28077173668757</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>18.65656824000134</v>
+        <v>18.60710720435748</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35.52807698737529</v>
+        <v>35.66249750108542</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17.89835850757322</v>
+        <v>17.70491107807183</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>16.97737765146963</v>
+        <v>17.07503995041653</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>29.81052091918463</v>
+        <v>29.50122550818194</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>15.77550562121371</v>
+        <v>15.39465547279358</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>16.8784828785384</v>
+        <v>16.4076904721129</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>31.38447462003515</v>
+        <v>31.40466926240525</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2366762104334038</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.524775953596291</v>
+        <v>0.5247759535962911</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2064874093557869</v>
@@ -1402,7 +1402,7 @@
         <v>0.1938280071362367</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3809161308314886</v>
+        <v>0.380916130831489</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.194345468923758</v>
@@ -1411,7 +1411,7 @@
         <v>0.2130591744311287</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.445241444939833</v>
+        <v>0.4452414449398334</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1088397974024638</v>
+        <v>0.1092008319766602</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1602399012321536</v>
+        <v>0.1618057149193975</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4469806144024137</v>
+        <v>0.4479608262156749</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1473413248874096</v>
+        <v>0.144661251585282</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1340944346544259</v>
+        <v>0.1291189222513458</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3273875075687051</v>
+        <v>0.3222704738292839</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1514759793925933</v>
+        <v>0.148104389798278</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1683061264473246</v>
+        <v>0.1604429670948246</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3982023375375789</v>
+        <v>0.3986865735059711</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2558793254902741</v>
+        <v>0.2573178346238443</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3134349779444596</v>
+        <v>0.3165184366550275</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6061279831234018</v>
+        <v>0.6123448014120518</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2692603524856046</v>
+        <v>0.2658483673230692</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2532417701814154</v>
+        <v>0.2565540718110557</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4510708739611355</v>
+        <v>0.4443580799849581</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2465188658931748</v>
+        <v>0.2415885671679746</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2654005541655094</v>
+        <v>0.2560641555341421</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4936375249327812</v>
+        <v>0.4935710341813614</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>7.688780891922898</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>27.85385814831266</v>
+        <v>27.85385814831265</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.549263078201689</v>
+        <v>5.593316888930522</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.629934178669193</v>
+        <v>6.683749497796175</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>28.9768033489585</v>
+        <v>29.12264202251188</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.389375441892446</v>
+        <v>6.33991308070102</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>4.320666625237375</v>
+        <v>4.212018463259777</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>22.87560057842378</v>
+        <v>22.92495437332479</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>6.686728305756086</v>
+        <v>6.646650005506779</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>6.164560718634742</v>
+        <v>5.946256935081785</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>26.5085358454203</v>
+        <v>26.60154625626385</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>10.03985466403931</v>
+        <v>10.40109315905696</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>11.23170162558554</v>
+        <v>11.41789941489176</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32.99665193399547</v>
+        <v>33.1113595097211</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.42902128661142</v>
+        <v>10.43184800472105</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.339265388408917</v>
+        <v>8.564886815361666</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>26.21576066527667</v>
+        <v>26.24081652404662</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.821287897615228</v>
+        <v>9.813581076197316</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.231239412743626</v>
+        <v>9.310179864731136</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>29.11102892446233</v>
+        <v>29.0861141215178</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>0.1143827044684847</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4143699332403202</v>
+        <v>0.41436993324032</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.08564107842931035</v>
+        <v>0.08626992316288988</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1017042540559373</v>
+        <v>0.1035780423489069</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4443693149217257</v>
+        <v>0.4490764622879962</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.08857776983287523</v>
+        <v>0.08791375262556536</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.05987002107553761</v>
+        <v>0.05840500482156647</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3152972480206822</v>
+        <v>0.3178240026083108</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.09774844255374561</v>
+        <v>0.09715457423998493</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.09052463108764702</v>
+        <v>0.08716570214249299</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3886588000787887</v>
+        <v>0.3892194760139989</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1618552082418903</v>
+        <v>0.1680873010696236</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1805854787293461</v>
+        <v>0.1852223771494638</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5322751107559531</v>
+        <v>0.5383022713973976</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1491271172113586</v>
+        <v>0.1495111049216322</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1194617812670228</v>
+        <v>0.1218386999702377</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3762267186958769</v>
+        <v>0.379338049127621</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1477871858500066</v>
+        <v>0.1466477796052425</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1393415188282206</v>
+        <v>0.1404737293472619</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4417694453569284</v>
+        <v>0.4400212712080223</v>
       </c>
     </row>
     <row r="34">
